--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="359">
   <si>
     <t>p24_1_nom</t>
   </si>
@@ -86,18 +86,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Taller de innovación</t>
@@ -1534,13 +1522,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB78"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,40 +1601,28 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1655,48 +1631,36 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="V2" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -1705,48 +1669,36 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="S3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="V3" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1755,48 +1707,36 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="S4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="V4" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1805,48 +1745,36 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="S5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V5" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -1855,48 +1783,36 @@
         <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="S6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V6" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P7">
         <v>11</v>
@@ -1905,48 +1821,36 @@
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>1897</v>
       </c>
       <c r="E8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -1955,48 +1859,36 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V8" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -2005,36 +1897,24 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="S9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V9" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="E10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P10">
         <v>12</v>
@@ -2043,48 +1923,36 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="S10" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="V10" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D11">
         <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="N11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -2093,48 +1961,36 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="S11" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="V11" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D12">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -2143,48 +1999,36 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V12" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -2193,48 +2037,36 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S13" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V13" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N14">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -2243,48 +2075,36 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S14" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V14" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2293,48 +2113,36 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S15" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V15" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N16">
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P16">
         <v>17</v>
@@ -2343,48 +2151,36 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="S16" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V16" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P17">
         <v>22</v>
@@ -2393,48 +2189,36 @@
         <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="S17" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="V17" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -2443,48 +2227,36 @@
         <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S18" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V18" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2493,48 +2265,36 @@
         <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S19" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V19" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P20">
         <v>23</v>
@@ -2543,48 +2303,36 @@
         <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V20" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -2593,48 +2341,36 @@
         <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V21" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N22">
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -2643,48 +2379,36 @@
         <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V22" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P23">
         <v>23</v>
@@ -2693,48 +2417,36 @@
         <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="S23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V23" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D24">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N24">
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P24">
         <v>24</v>
@@ -2743,48 +2455,36 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V24" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D25">
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N25">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P25">
         <v>24</v>
@@ -2793,48 +2493,36 @@
         <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V25" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D26">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P26">
         <v>26</v>
@@ -2843,48 +2531,36 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="S26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="V26" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P27">
         <v>27</v>
@@ -2893,48 +2569,36 @@
         <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="S27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="V27" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -2943,48 +2607,36 @@
         <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="S28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V28" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D29">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P29">
         <v>28</v>
@@ -2993,48 +2645,36 @@
         <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="S29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V29" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D30">
         <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N30">
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P30">
         <v>28</v>
@@ -3043,48 +2683,36 @@
         <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="S30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V30" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D31">
         <v>10912</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P31">
         <v>29</v>
@@ -3093,48 +2721,36 @@
         <v>58</v>
       </c>
       <c r="R31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="S31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="V31" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D32">
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N32">
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P32">
         <v>30</v>
@@ -3143,48 +2759,36 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="S32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V32" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D33">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N33">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P33">
         <v>30</v>
@@ -3193,48 +2797,36 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="S33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V33" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P34">
         <v>32</v>
@@ -3243,48 +2835,36 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="S34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="V34" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D35">
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N35">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P35">
         <v>33</v>
@@ -3293,48 +2873,36 @@
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="S35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="V35" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D36">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N36">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P36">
         <v>34</v>
@@ -3343,48 +2911,36 @@
         <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="S36" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V36" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N37">
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -3393,48 +2949,36 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="S37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V37" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D38">
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P38">
         <v>35</v>
@@ -3443,48 +2987,36 @@
         <v>75</v>
       </c>
       <c r="R38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S38" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V38" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D39">
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P39">
         <v>35</v>
@@ -3493,48 +3025,36 @@
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S39" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V39" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D40">
         <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N40">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P40">
         <v>35</v>
@@ -3543,48 +3063,36 @@
         <v>75</v>
       </c>
       <c r="R40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S40" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V40" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D41">
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N41">
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P41">
         <v>35</v>
@@ -3593,48 +3101,36 @@
         <v>75</v>
       </c>
       <c r="R41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S41" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V41" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D42">
         <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P42">
         <v>35</v>
@@ -3643,48 +3139,36 @@
         <v>75</v>
       </c>
       <c r="R42" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S42" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V42" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D43">
         <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N43">
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P43">
         <v>35</v>
@@ -3693,48 +3177,36 @@
         <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S43" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V43" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P44">
         <v>36</v>
@@ -3743,48 +3215,36 @@
         <v>77</v>
       </c>
       <c r="R44" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S44" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V44" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D45">
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N45">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P45">
         <v>36</v>
@@ -3793,48 +3253,36 @@
         <v>77</v>
       </c>
       <c r="R45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S45" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V45" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N46">
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3843,48 +3291,36 @@
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S46" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="V46" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D47">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N47">
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P47">
         <v>38</v>
@@ -3893,48 +3329,36 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S47" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V47" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="N48">
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P48">
         <v>38</v>
@@ -3943,48 +3367,36 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S48" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V48" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D49">
         <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N49">
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -3993,48 +3405,36 @@
         <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S49" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V49" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D50">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="N50">
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P50">
         <v>39</v>
@@ -4043,48 +3443,36 @@
         <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S50" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V50" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D51">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P51">
         <v>39</v>
@@ -4093,48 +3481,36 @@
         <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V51" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-      <c r="AB51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D52">
         <v>436</v>
       </c>
       <c r="E52" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N52">
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -4143,48 +3519,36 @@
         <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S52" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V52" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-      <c r="AB52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D53">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P53">
         <v>41</v>
@@ -4193,48 +3557,36 @@
         <v>83</v>
       </c>
       <c r="R53" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="S53" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="V53" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-      <c r="AB53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N54">
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P54">
         <v>42</v>
@@ -4243,48 +3595,36 @@
         <v>84</v>
       </c>
       <c r="R54" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S54" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="V54" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-      <c r="AB54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="N55">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P55">
         <v>46</v>
@@ -4293,48 +3633,36 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S55" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V55" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P56">
         <v>46</v>
@@ -4343,48 +3671,36 @@
         <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V56" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D57">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P57">
         <v>46</v>
@@ -4393,48 +3709,36 @@
         <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V57" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-      <c r="AB57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D58">
         <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="N58">
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P58">
         <v>46</v>
@@ -4443,48 +3747,36 @@
         <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S58" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V58" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-      <c r="AB58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D59">
         <v>735</v>
       </c>
       <c r="E59" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N59">
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P59">
         <v>46</v>
@@ -4493,48 +3785,36 @@
         <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S59" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V59" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N60">
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P60">
         <v>47</v>
@@ -4543,48 +3823,36 @@
         <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S60" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V60" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N61">
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P61">
         <v>47</v>
@@ -4593,48 +3861,36 @@
         <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V61" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-      <c r="AB61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N62">
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P62">
         <v>47</v>
@@ -4643,48 +3899,36 @@
         <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S62" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V62" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-      <c r="AB62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N63">
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P63">
         <v>47</v>
@@ -4693,48 +3937,36 @@
         <v>91</v>
       </c>
       <c r="R63" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S63" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V63" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="N64">
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P64">
         <v>47</v>
@@ -4743,48 +3975,36 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="S64" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V64" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-      <c r="AB64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C65" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P65">
         <v>48</v>
@@ -4793,48 +4013,36 @@
         <v>92</v>
       </c>
       <c r="R65" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="S65" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="V65" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D66">
         <v>66814</v>
       </c>
       <c r="E66" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -4843,48 +4051,36 @@
         <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="S66" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="V66" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N67">
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P67">
         <v>54</v>
@@ -4893,48 +4089,36 @@
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="S67" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="V67" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-      <c r="AB67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="N68">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P68">
         <v>56</v>
@@ -4943,48 +4127,36 @@
         <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="S68" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="V68" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-      <c r="AB68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N69">
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P69">
         <v>57</v>
@@ -4993,48 +4165,36 @@
         <v>102</v>
       </c>
       <c r="R69" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S69" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V69" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-      <c r="AB69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N70">
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P70">
         <v>57</v>
@@ -5043,48 +4203,36 @@
         <v>102</v>
       </c>
       <c r="R70" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="S70" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V70" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-      <c r="AB70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D71">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P71">
         <v>59</v>
@@ -5093,48 +4241,36 @@
         <v>104</v>
       </c>
       <c r="R71" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="S71" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="V71" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D72">
         <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N72">
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -5143,48 +4279,36 @@
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="S72" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="V72" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N73">
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -5193,48 +4317,36 @@
         <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="S73" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="V73" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N74">
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P74">
         <v>64</v>
@@ -5243,48 +4355,36 @@
         <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="S74" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="V74" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AB74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N75">
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P75">
         <v>66</v>
@@ -5293,48 +4393,36 @@
         <v>113</v>
       </c>
       <c r="R75" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="S75" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="V75" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D76">
         <v>1536</v>
       </c>
       <c r="E76" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N76">
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P76">
         <v>68</v>
@@ -5343,48 +4431,36 @@
         <v>115</v>
       </c>
       <c r="R76" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="S76" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="V76" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D77">
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N77">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P77">
         <v>69</v>
@@ -5393,48 +4469,36 @@
         <v>117</v>
       </c>
       <c r="R77" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="S77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="V77" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D78">
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N78">
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P78">
         <v>71</v>
@@ -5443,25 +4507,13 @@
         <v>119</v>
       </c>
       <c r="R78" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="S78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="V78" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <v>0</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="360">
   <si>
     <t>p24_1_nom</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Taller de innovación</t>
@@ -1522,13 +1525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1601,28 +1604,31 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1631,36 +1637,39 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="V2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -1669,36 +1678,39 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="V3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1707,36 +1719,39 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="V4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1745,36 +1760,39 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -1783,36 +1801,39 @@
         <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P7">
         <v>11</v>
@@ -1821,36 +1842,39 @@
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>1897</v>
       </c>
       <c r="E8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -1859,36 +1883,39 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -1897,24 +1924,27 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P10">
         <v>12</v>
@@ -1923,36 +1953,39 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S10" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="V10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D11">
         <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -1961,36 +1994,39 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S11" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="V11" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+        <v>359</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D12">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -1999,36 +2035,39 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -2037,36 +2076,39 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S13" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N14">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -2075,36 +2117,39 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S14" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2113,36 +2158,39 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S15" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>358</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N16">
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P16">
         <v>17</v>
@@ -2151,36 +2199,39 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S16" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P17">
         <v>22</v>
@@ -2189,36 +2240,39 @@
         <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S17" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="V17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -2227,36 +2281,39 @@
         <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S18" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2265,36 +2322,39 @@
         <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S19" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P20">
         <v>23</v>
@@ -2303,36 +2363,39 @@
         <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V20" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -2341,36 +2404,39 @@
         <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V21" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N22">
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -2379,36 +2445,39 @@
         <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V22" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P23">
         <v>23</v>
@@ -2417,36 +2486,39 @@
         <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N24">
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P24">
         <v>24</v>
@@ -2455,36 +2527,39 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V24" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>359</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25">
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P25">
         <v>24</v>
@@ -2493,36 +2568,39 @@
         <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>359</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D26">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P26">
         <v>26</v>
@@ -2531,36 +2609,39 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="V26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P27">
         <v>27</v>
@@ -2569,36 +2650,39 @@
         <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="V27" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D28">
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -2607,36 +2691,39 @@
         <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V28" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D29">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P29">
         <v>28</v>
@@ -2645,36 +2732,39 @@
         <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V29" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30">
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P30">
         <v>28</v>
@@ -2683,36 +2773,39 @@
         <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V30" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D31">
         <v>10912</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P31">
         <v>29</v>
@@ -2721,36 +2814,39 @@
         <v>58</v>
       </c>
       <c r="R31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="V31" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N32">
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P32">
         <v>30</v>
@@ -2759,36 +2855,39 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D33">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N33">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P33">
         <v>30</v>
@@ -2797,36 +2896,39 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V33" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P34">
         <v>32</v>
@@ -2835,36 +2937,39 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="V34" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D35">
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N35">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P35">
         <v>33</v>
@@ -2873,36 +2978,39 @@
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="V35" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D36">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N36">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P36">
         <v>34</v>
@@ -2911,36 +3019,39 @@
         <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S36" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V36" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N37">
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -2949,36 +3060,39 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V37" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P38">
         <v>35</v>
@@ -2987,36 +3101,39 @@
         <v>75</v>
       </c>
       <c r="R38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S38" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V38" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D39">
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P39">
         <v>35</v>
@@ -3025,36 +3142,39 @@
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S39" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D40">
         <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N40">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P40">
         <v>35</v>
@@ -3063,36 +3183,39 @@
         <v>75</v>
       </c>
       <c r="R40" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S40" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V40" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D41">
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N41">
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P41">
         <v>35</v>
@@ -3101,36 +3224,39 @@
         <v>75</v>
       </c>
       <c r="R41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S41" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V41" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D42">
         <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P42">
         <v>35</v>
@@ -3139,36 +3265,39 @@
         <v>75</v>
       </c>
       <c r="R42" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S42" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V42" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D43">
         <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N43">
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P43">
         <v>35</v>
@@ -3177,36 +3306,39 @@
         <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S43" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V43" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44">
         <v>36</v>
@@ -3215,36 +3347,39 @@
         <v>77</v>
       </c>
       <c r="R44" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S44" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V44" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D45">
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N45">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P45">
         <v>36</v>
@@ -3253,36 +3388,39 @@
         <v>77</v>
       </c>
       <c r="R45" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S45" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V45" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N46">
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3291,36 +3429,39 @@
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S46" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="V46" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D47">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N47">
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P47">
         <v>38</v>
@@ -3329,36 +3470,39 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S47" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V47" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N48">
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P48">
         <v>38</v>
@@ -3367,36 +3511,39 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S48" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D49">
         <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N49">
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -3405,36 +3552,39 @@
         <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S49" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D50">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N50">
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P50">
         <v>39</v>
@@ -3443,36 +3593,39 @@
         <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S50" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V50" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D51">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P51">
         <v>39</v>
@@ -3481,36 +3634,39 @@
         <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V51" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D52">
         <v>436</v>
       </c>
       <c r="E52" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N52">
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -3519,36 +3675,39 @@
         <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S52" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V52" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D53">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P53">
         <v>41</v>
@@ -3557,36 +3716,39 @@
         <v>83</v>
       </c>
       <c r="R53" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S53" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="V53" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N54">
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P54">
         <v>42</v>
@@ -3595,36 +3757,39 @@
         <v>84</v>
       </c>
       <c r="R54" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S54" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="V54" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N55">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P55">
         <v>46</v>
@@ -3633,36 +3798,39 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S55" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V55" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P56">
         <v>46</v>
@@ -3671,36 +3839,39 @@
         <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V56" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D57">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P57">
         <v>46</v>
@@ -3709,36 +3880,39 @@
         <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V57" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D58">
         <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N58">
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P58">
         <v>46</v>
@@ -3747,36 +3921,39 @@
         <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S58" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V58" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D59">
         <v>735</v>
       </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N59">
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P59">
         <v>46</v>
@@ -3785,36 +3962,39 @@
         <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S59" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V59" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N60">
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P60">
         <v>47</v>
@@ -3823,36 +4003,39 @@
         <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S60" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V60" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N61">
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P61">
         <v>47</v>
@@ -3861,36 +4044,39 @@
         <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V61" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N62">
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P62">
         <v>47</v>
@@ -3899,36 +4085,39 @@
         <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S62" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V62" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N63">
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P63">
         <v>47</v>
@@ -3937,36 +4126,39 @@
         <v>91</v>
       </c>
       <c r="R63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S63" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V63" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N64">
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P64">
         <v>47</v>
@@ -3975,36 +4167,39 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S64" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V64" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P65">
         <v>48</v>
@@ -4013,36 +4208,39 @@
         <v>92</v>
       </c>
       <c r="R65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S65" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="V65" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66">
         <v>66814</v>
       </c>
       <c r="E66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -4051,36 +4249,39 @@
         <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S66" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="V66" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N67">
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P67">
         <v>54</v>
@@ -4089,36 +4290,39 @@
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S67" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="V67" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N68">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P68">
         <v>56</v>
@@ -4127,36 +4331,39 @@
         <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S68" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="V68" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N69">
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P69">
         <v>57</v>
@@ -4165,36 +4372,39 @@
         <v>102</v>
       </c>
       <c r="R69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S69" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N70">
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P70">
         <v>57</v>
@@ -4203,36 +4413,39 @@
         <v>102</v>
       </c>
       <c r="R70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S70" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D71">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P71">
         <v>59</v>
@@ -4241,36 +4454,39 @@
         <v>104</v>
       </c>
       <c r="R71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S71" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="V71" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D72">
         <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N72">
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -4279,36 +4495,39 @@
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S72" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="V72" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N73">
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -4317,36 +4536,39 @@
         <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S73" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="V73" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N74">
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P74">
         <v>64</v>
@@ -4355,36 +4577,39 @@
         <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S74" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="V74" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N75">
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P75">
         <v>66</v>
@@ -4393,36 +4618,39 @@
         <v>113</v>
       </c>
       <c r="R75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S75" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="V75" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D76">
         <v>1536</v>
       </c>
       <c r="E76" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N76">
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P76">
         <v>68</v>
@@ -4431,36 +4659,39 @@
         <v>115</v>
       </c>
       <c r="R76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S76" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="V76" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>359</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D77">
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N77">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P77">
         <v>69</v>
@@ -4469,36 +4700,39 @@
         <v>117</v>
       </c>
       <c r="R77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="V77" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D78">
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N78">
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P78">
         <v>71</v>
@@ -4507,13 +4741,16 @@
         <v>119</v>
       </c>
       <c r="R78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="V78" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
   <si>
     <t>p24_1_nom</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1525,13 +1528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,28 +1610,31 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1637,39 +1643,42 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="V2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -1678,39 +1687,42 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="V3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1719,39 +1731,42 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="V4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1760,39 +1775,42 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -1801,39 +1819,42 @@
         <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P7">
         <v>11</v>
@@ -1842,39 +1863,42 @@
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>1897</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -1883,39 +1907,42 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -1924,27 +1951,30 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="E10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P10">
         <v>12</v>
@@ -1953,39 +1983,42 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S10" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="V10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D11">
         <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -1994,39 +2027,42 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S11" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="V11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D12">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -2035,39 +2071,42 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -2076,39 +2115,42 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S13" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N14">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -2117,39 +2159,42 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S14" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2158,39 +2203,42 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S15" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N16">
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P16">
         <v>17</v>
@@ -2199,39 +2247,42 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S16" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P17">
         <v>22</v>
@@ -2240,39 +2291,42 @@
         <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S17" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="V17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -2281,39 +2335,42 @@
         <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S18" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2322,39 +2379,42 @@
         <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S19" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P20">
         <v>23</v>
@@ -2363,39 +2423,42 @@
         <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -2404,39 +2467,42 @@
         <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N22">
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -2445,39 +2511,42 @@
         <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P23">
         <v>23</v>
@@ -2486,39 +2555,42 @@
         <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D24">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N24">
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P24">
         <v>24</v>
@@ -2527,39 +2599,42 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D25">
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N25">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P25">
         <v>24</v>
@@ -2568,39 +2643,42 @@
         <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D26">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P26">
         <v>26</v>
@@ -2609,39 +2687,42 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="V26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P27">
         <v>27</v>
@@ -2650,39 +2731,42 @@
         <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="V27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D28">
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -2691,39 +2775,42 @@
         <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D29">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P29">
         <v>28</v>
@@ -2732,39 +2819,42 @@
         <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D30">
         <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N30">
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P30">
         <v>28</v>
@@ -2773,39 +2863,42 @@
         <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31">
         <v>10912</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P31">
         <v>29</v>
@@ -2814,39 +2907,42 @@
         <v>58</v>
       </c>
       <c r="R31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="V31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D32">
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N32">
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P32">
         <v>30</v>
@@ -2855,39 +2951,42 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D33">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N33">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P33">
         <v>30</v>
@@ -2896,39 +2995,42 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P34">
         <v>32</v>
@@ -2937,39 +3039,42 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="V34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D35">
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P35">
         <v>33</v>
@@ -2978,39 +3083,42 @@
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="V35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D36">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N36">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P36">
         <v>34</v>
@@ -3019,39 +3127,42 @@
         <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S36" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N37">
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -3060,39 +3171,42 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D38">
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P38">
         <v>35</v>
@@ -3101,39 +3215,42 @@
         <v>75</v>
       </c>
       <c r="R38" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S38" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V38" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D39">
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P39">
         <v>35</v>
@@ -3142,39 +3259,42 @@
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S39" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D40">
         <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N40">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P40">
         <v>35</v>
@@ -3183,39 +3303,42 @@
         <v>75</v>
       </c>
       <c r="R40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S40" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D41">
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N41">
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P41">
         <v>35</v>
@@ -3224,39 +3347,42 @@
         <v>75</v>
       </c>
       <c r="R41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S41" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V41" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D42">
         <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P42">
         <v>35</v>
@@ -3265,39 +3391,42 @@
         <v>75</v>
       </c>
       <c r="R42" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S42" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D43">
         <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N43">
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P43">
         <v>35</v>
@@ -3306,39 +3435,42 @@
         <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S43" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P44">
         <v>36</v>
@@ -3347,39 +3479,42 @@
         <v>77</v>
       </c>
       <c r="R44" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S44" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D45">
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N45">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P45">
         <v>36</v>
@@ -3388,39 +3523,42 @@
         <v>77</v>
       </c>
       <c r="R45" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S45" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N46">
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3429,39 +3567,42 @@
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S46" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="V46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D47">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N47">
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P47">
         <v>38</v>
@@ -3470,39 +3611,42 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S47" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N48">
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P48">
         <v>38</v>
@@ -3511,39 +3655,42 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S48" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D49">
         <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N49">
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -3552,39 +3699,42 @@
         <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S49" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D50">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N50">
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P50">
         <v>39</v>
@@ -3593,39 +3743,42 @@
         <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S50" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D51">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P51">
         <v>39</v>
@@ -3634,39 +3787,42 @@
         <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D52">
         <v>436</v>
       </c>
       <c r="E52" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N52">
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -3675,39 +3831,42 @@
         <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S52" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D53">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P53">
         <v>41</v>
@@ -3716,39 +3875,42 @@
         <v>83</v>
       </c>
       <c r="R53" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S53" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="V53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N54">
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P54">
         <v>42</v>
@@ -3757,39 +3919,42 @@
         <v>84</v>
       </c>
       <c r="R54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S54" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="V54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N55">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P55">
         <v>46</v>
@@ -3798,39 +3963,42 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S55" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P56">
         <v>46</v>
@@ -3839,39 +4007,42 @@
         <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D57">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P57">
         <v>46</v>
@@ -3880,39 +4051,42 @@
         <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V57" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D58">
         <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N58">
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P58">
         <v>46</v>
@@ -3921,39 +4095,42 @@
         <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S58" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D59">
         <v>735</v>
       </c>
       <c r="E59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N59">
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P59">
         <v>46</v>
@@ -3962,39 +4139,42 @@
         <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S59" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N60">
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P60">
         <v>47</v>
@@ -4003,39 +4183,42 @@
         <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S60" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N61">
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P61">
         <v>47</v>
@@ -4044,39 +4227,42 @@
         <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V61" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N62">
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P62">
         <v>47</v>
@@ -4085,39 +4271,42 @@
         <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S62" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N63">
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P63">
         <v>47</v>
@@ -4126,39 +4315,42 @@
         <v>91</v>
       </c>
       <c r="R63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S63" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N64">
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P64">
         <v>47</v>
@@ -4167,39 +4359,42 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S64" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P65">
         <v>48</v>
@@ -4208,39 +4403,42 @@
         <v>92</v>
       </c>
       <c r="R65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S65" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="V65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D66">
         <v>66814</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -4249,39 +4447,42 @@
         <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S66" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="V66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N67">
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P67">
         <v>54</v>
@@ -4290,39 +4491,42 @@
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S67" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="V67" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N68">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P68">
         <v>56</v>
@@ -4331,39 +4535,42 @@
         <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S68" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="V68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N69">
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P69">
         <v>57</v>
@@ -4372,39 +4579,42 @@
         <v>102</v>
       </c>
       <c r="R69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S69" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N70">
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P70">
         <v>57</v>
@@ -4413,39 +4623,42 @@
         <v>102</v>
       </c>
       <c r="R70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S70" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V70" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D71">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P71">
         <v>59</v>
@@ -4454,39 +4667,42 @@
         <v>104</v>
       </c>
       <c r="R71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S71" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="V71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D72">
         <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N72">
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -4495,39 +4711,42 @@
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S72" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="V72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N73">
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -4536,39 +4755,42 @@
         <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S73" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="V73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N74">
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P74">
         <v>63</v>
@@ -4577,39 +4799,42 @@
         <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S74" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="V74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N75">
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P75">
         <v>65</v>
@@ -4618,39 +4843,42 @@
         <v>113</v>
       </c>
       <c r="R75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S75" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="V75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D76">
         <v>1536</v>
       </c>
       <c r="E76" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N76">
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P76">
         <v>67</v>
@@ -4659,39 +4887,42 @@
         <v>115</v>
       </c>
       <c r="R76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S76" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="V76" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D77">
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N77">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P77">
         <v>68</v>
@@ -4700,39 +4931,42 @@
         <v>117</v>
       </c>
       <c r="R77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="V77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D78">
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N78">
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P78">
         <v>70</v>
@@ -4741,15 +4975,18 @@
         <v>119</v>
       </c>
       <c r="R78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="V78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="362">
   <si>
     <t>p24_1_nom</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1528,13 +1531,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,28 +1616,31 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1643,13 +1649,13 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="V2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1657,28 +1663,31 @@
       <c r="Z2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -1687,13 +1696,13 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="V3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1701,28 +1710,31 @@
       <c r="Z3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1731,13 +1743,13 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="V4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1745,28 +1757,31 @@
       <c r="Z4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1775,13 +1790,13 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1789,28 +1804,31 @@
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -1819,13 +1837,13 @@
         <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1833,28 +1851,31 @@
       <c r="Z6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P7">
         <v>11</v>
@@ -1863,13 +1884,13 @@
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1877,28 +1898,31 @@
       <c r="Z7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8">
         <v>1897</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -1907,13 +1931,13 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1921,28 +1945,31 @@
       <c r="Z8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -1951,13 +1978,13 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1965,16 +1992,19 @@
       <c r="Z9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="E10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P10">
         <v>12</v>
@@ -1983,13 +2013,13 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S10" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="V10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1997,28 +2027,31 @@
       <c r="Z10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D11">
         <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -2027,13 +2060,13 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S11" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="V11" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2041,28 +2074,31 @@
       <c r="Z11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D12">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -2071,13 +2107,13 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2085,28 +2121,31 @@
       <c r="Z12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -2115,13 +2154,13 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S13" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2129,28 +2168,31 @@
       <c r="Z13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N14">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -2159,13 +2201,13 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S14" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V14" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -2173,28 +2215,31 @@
       <c r="Z14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2203,13 +2248,13 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S15" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2217,28 +2262,31 @@
       <c r="Z15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N16">
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P16">
         <v>17</v>
@@ -2247,13 +2295,13 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S16" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V16" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2261,28 +2309,31 @@
       <c r="Z16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P17">
         <v>22</v>
@@ -2291,13 +2342,13 @@
         <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S17" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="V17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2305,28 +2356,31 @@
       <c r="Z17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -2335,13 +2389,13 @@
         <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S18" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2349,28 +2403,31 @@
       <c r="Z18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2379,13 +2436,13 @@
         <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S19" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2393,28 +2450,31 @@
       <c r="Z19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P20">
         <v>23</v>
@@ -2423,13 +2483,13 @@
         <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2437,28 +2497,31 @@
       <c r="Z20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -2467,13 +2530,13 @@
         <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2481,28 +2544,31 @@
       <c r="Z21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N22">
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -2511,13 +2577,13 @@
         <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2525,28 +2591,31 @@
       <c r="Z22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P23">
         <v>23</v>
@@ -2555,13 +2624,13 @@
         <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2569,28 +2638,31 @@
       <c r="Z23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D24">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N24">
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P24">
         <v>24</v>
@@ -2599,13 +2671,13 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2613,28 +2685,31 @@
       <c r="Z24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D25">
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P25">
         <v>24</v>
@@ -2643,13 +2718,13 @@
         <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V25" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2657,28 +2732,31 @@
       <c r="Z25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D26">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P26">
         <v>26</v>
@@ -2687,13 +2765,13 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="V26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2701,28 +2779,31 @@
       <c r="Z26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P27">
         <v>27</v>
@@ -2731,13 +2812,13 @@
         <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="V27" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2745,28 +2826,31 @@
       <c r="Z27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D28">
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -2775,13 +2859,13 @@
         <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2789,28 +2873,31 @@
       <c r="Z28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D29">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P29">
         <v>28</v>
@@ -2819,13 +2906,13 @@
         <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V29" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2833,28 +2920,31 @@
       <c r="Z29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D30">
         <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30">
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P30">
         <v>28</v>
@@ -2863,13 +2953,13 @@
         <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V30" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2877,28 +2967,31 @@
       <c r="Z30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D31">
         <v>10912</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P31">
         <v>29</v>
@@ -2907,13 +3000,13 @@
         <v>58</v>
       </c>
       <c r="R31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="V31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2921,28 +3014,31 @@
       <c r="Z31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D32">
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N32">
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P32">
         <v>30</v>
@@ -2951,13 +3047,13 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -2965,28 +3061,31 @@
       <c r="Z32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D33">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N33">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P33">
         <v>30</v>
@@ -2995,13 +3094,13 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3009,28 +3108,31 @@
       <c r="Z33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P34">
         <v>32</v>
@@ -3039,13 +3141,13 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="V34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3053,28 +3155,31 @@
       <c r="Z34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D35">
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P35">
         <v>33</v>
@@ -3083,13 +3188,13 @@
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="V35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3097,28 +3202,31 @@
       <c r="Z35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D36">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N36">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P36">
         <v>34</v>
@@ -3127,13 +3235,13 @@
         <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S36" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3141,28 +3249,31 @@
       <c r="Z36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N37">
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -3171,13 +3282,13 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3185,28 +3296,31 @@
       <c r="Z37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D38">
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P38">
         <v>35</v>
@@ -3215,13 +3329,13 @@
         <v>75</v>
       </c>
       <c r="R38" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S38" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V38" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3229,28 +3343,31 @@
       <c r="Z38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D39">
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P39">
         <v>35</v>
@@ -3259,13 +3376,13 @@
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S39" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V39" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3273,28 +3390,31 @@
       <c r="Z39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D40">
         <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N40">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P40">
         <v>35</v>
@@ -3303,13 +3423,13 @@
         <v>75</v>
       </c>
       <c r="R40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S40" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V40" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -3317,28 +3437,31 @@
       <c r="Z40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D41">
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N41">
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P41">
         <v>35</v>
@@ -3347,13 +3470,13 @@
         <v>75</v>
       </c>
       <c r="R41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S41" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V41" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3361,28 +3484,31 @@
       <c r="Z41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D42">
         <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42">
         <v>35</v>
@@ -3391,13 +3517,13 @@
         <v>75</v>
       </c>
       <c r="R42" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S42" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V42" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3405,28 +3531,31 @@
       <c r="Z42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43">
         <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N43">
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P43">
         <v>35</v>
@@ -3435,13 +3564,13 @@
         <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S43" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V43" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3449,28 +3578,31 @@
       <c r="Z43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P44">
         <v>36</v>
@@ -3479,13 +3611,13 @@
         <v>77</v>
       </c>
       <c r="R44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S44" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3493,28 +3625,31 @@
       <c r="Z44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D45">
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N45">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P45">
         <v>36</v>
@@ -3523,13 +3658,13 @@
         <v>77</v>
       </c>
       <c r="R45" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S45" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V45" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3537,28 +3672,31 @@
       <c r="Z45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N46">
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3567,13 +3705,13 @@
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S46" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="V46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3581,28 +3719,31 @@
       <c r="Z46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D47">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47">
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P47">
         <v>38</v>
@@ -3611,13 +3752,13 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S47" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3625,28 +3766,31 @@
       <c r="Z47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N48">
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P48">
         <v>38</v>
@@ -3655,13 +3799,13 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S48" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3669,28 +3813,31 @@
       <c r="Z48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D49">
         <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N49">
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -3699,13 +3846,13 @@
         <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S49" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V49" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3713,28 +3860,31 @@
       <c r="Z49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N50">
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P50">
         <v>39</v>
@@ -3743,13 +3893,13 @@
         <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S50" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V50" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3757,28 +3907,31 @@
       <c r="Z50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D51">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P51">
         <v>39</v>
@@ -3787,13 +3940,13 @@
         <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V51" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3801,28 +3954,31 @@
       <c r="Z51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D52">
         <v>436</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N52">
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -3831,13 +3987,13 @@
         <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S52" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V52" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -3845,28 +4001,31 @@
       <c r="Z52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D53">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P53">
         <v>41</v>
@@ -3875,13 +4034,13 @@
         <v>83</v>
       </c>
       <c r="R53" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S53" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="V53" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -3889,28 +4048,31 @@
       <c r="Z53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N54">
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P54">
         <v>42</v>
@@ -3919,13 +4081,13 @@
         <v>84</v>
       </c>
       <c r="R54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S54" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="V54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y54">
         <v>0</v>
@@ -3933,28 +4095,31 @@
       <c r="Z54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N55">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P55">
         <v>46</v>
@@ -3963,13 +4128,13 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S55" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V55" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y55">
         <v>0</v>
@@ -3977,28 +4142,31 @@
       <c r="Z55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P56">
         <v>46</v>
@@ -4007,13 +4175,13 @@
         <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -4021,28 +4189,31 @@
       <c r="Z56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D57">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P57">
         <v>46</v>
@@ -4051,13 +4222,13 @@
         <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -4065,28 +4236,31 @@
       <c r="Z57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D58">
         <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N58">
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P58">
         <v>46</v>
@@ -4095,13 +4269,13 @@
         <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S58" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V58" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -4109,28 +4283,31 @@
       <c r="Z58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D59">
         <v>735</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N59">
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P59">
         <v>46</v>
@@ -4139,13 +4316,13 @@
         <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S59" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -4153,28 +4330,31 @@
       <c r="Z59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N60">
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P60">
         <v>47</v>
@@ -4183,13 +4363,13 @@
         <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S60" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V60" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -4197,28 +4377,31 @@
       <c r="Z60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N61">
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P61">
         <v>47</v>
@@ -4227,13 +4410,13 @@
         <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V61" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -4241,28 +4424,31 @@
       <c r="Z61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N62">
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P62">
         <v>47</v>
@@ -4271,13 +4457,13 @@
         <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S62" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V62" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -4285,28 +4471,31 @@
       <c r="Z62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N63">
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P63">
         <v>47</v>
@@ -4315,13 +4504,13 @@
         <v>91</v>
       </c>
       <c r="R63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S63" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -4329,28 +4518,31 @@
       <c r="Z63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N64">
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P64">
         <v>47</v>
@@ -4359,13 +4551,13 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S64" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V64" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y64">
         <v>0</v>
@@ -4373,28 +4565,31 @@
       <c r="Z64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P65">
         <v>48</v>
@@ -4403,13 +4598,13 @@
         <v>92</v>
       </c>
       <c r="R65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="S65" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="V65" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y65">
         <v>0</v>
@@ -4417,28 +4612,31 @@
       <c r="Z65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D66">
         <v>66814</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -4447,13 +4645,13 @@
         <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="S66" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="V66" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -4461,28 +4659,31 @@
       <c r="Z66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N67">
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P67">
         <v>54</v>
@@ -4491,13 +4692,13 @@
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="S67" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="V67" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -4505,28 +4706,31 @@
       <c r="Z67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N68">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P68">
         <v>56</v>
@@ -4535,13 +4739,13 @@
         <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S68" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="V68" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -4549,28 +4753,31 @@
       <c r="Z68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N69">
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P69">
         <v>57</v>
@@ -4579,13 +4786,13 @@
         <v>102</v>
       </c>
       <c r="R69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S69" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y69">
         <v>0</v>
@@ -4593,28 +4800,31 @@
       <c r="Z69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N70">
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P70">
         <v>57</v>
@@ -4623,13 +4833,13 @@
         <v>102</v>
       </c>
       <c r="R70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S70" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y70">
         <v>0</v>
@@ -4637,28 +4847,31 @@
       <c r="Z70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D71">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P71">
         <v>59</v>
@@ -4667,13 +4880,13 @@
         <v>104</v>
       </c>
       <c r="R71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S71" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="V71" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -4681,28 +4894,31 @@
       <c r="Z71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D72">
         <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N72">
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -4711,13 +4927,13 @@
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S72" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="V72" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -4725,28 +4941,31 @@
       <c r="Z72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N73">
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -4755,13 +4974,13 @@
         <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="S73" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="V73" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -4769,28 +4988,31 @@
       <c r="Z73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N74">
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P74">
         <v>63</v>
@@ -4799,13 +5021,13 @@
         <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S74" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="V74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y74">
         <v>0</v>
@@ -4813,28 +5035,31 @@
       <c r="Z74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N75">
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P75">
         <v>65</v>
@@ -4843,13 +5068,13 @@
         <v>113</v>
       </c>
       <c r="R75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="S75" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="V75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -4857,28 +5082,31 @@
       <c r="Z75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D76">
         <v>1536</v>
       </c>
       <c r="E76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N76">
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P76">
         <v>67</v>
@@ -4887,13 +5115,13 @@
         <v>115</v>
       </c>
       <c r="R76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="S76" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="V76" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -4901,28 +5129,31 @@
       <c r="Z76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D77">
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N77">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P77">
         <v>68</v>
@@ -4931,13 +5162,13 @@
         <v>117</v>
       </c>
       <c r="R77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="S77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="V77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -4945,28 +5176,31 @@
       <c r="Z77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D78">
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N78">
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P78">
         <v>70</v>
@@ -4975,18 +5209,21 @@
         <v>119</v>
       </c>
       <c r="R78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="V78" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y78">
         <v>0</v>
       </c>
       <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
   <si>
     <t>p24_1_nom</t>
   </si>
@@ -88,13 +88,10 @@
     <t>_submission__tags</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>l1</t>
-  </si>
-  <si>
     <t>nota_iniciativa</t>
+  </si>
+  <si>
+    <t>p24_1</t>
   </si>
   <si>
     <t>Taller de innovación</t>
@@ -1531,13 +1528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,31 +1613,28 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1649,45 +1643,36 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="V2" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -1696,45 +1681,36 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="V3" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1743,45 +1719,36 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="V4" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1790,45 +1757,36 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V5" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -1837,45 +1795,36 @@
         <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V6" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P7">
         <v>11</v>
@@ -1884,45 +1833,36 @@
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8">
         <v>1897</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -1931,45 +1871,36 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V8" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -1978,33 +1909,24 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V9" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="E10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P10">
         <v>12</v>
@@ -2013,45 +1935,36 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S10" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="V10" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11">
         <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -2060,45 +1973,36 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S11" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="V11" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -2107,45 +2011,36 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V12" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -2154,45 +2049,36 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S13" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V13" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N14">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -2201,45 +2087,36 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S14" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V14" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2248,45 +2125,36 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S15" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V15" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N16">
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P16">
         <v>17</v>
@@ -2295,45 +2163,36 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S16" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V16" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P17">
         <v>22</v>
@@ -2342,45 +2201,36 @@
         <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S17" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="V17" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -2389,45 +2239,36 @@
         <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S18" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V18" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2436,45 +2277,36 @@
         <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S19" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V19" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P20">
         <v>23</v>
@@ -2483,45 +2315,36 @@
         <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V20" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -2530,45 +2353,36 @@
         <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V21" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N22">
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -2577,45 +2391,36 @@
         <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V22" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P23">
         <v>23</v>
@@ -2624,45 +2429,36 @@
         <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V23" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N24">
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P24">
         <v>24</v>
@@ -2671,45 +2467,36 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V24" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D25">
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N25">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P25">
         <v>24</v>
@@ -2718,45 +2505,36 @@
         <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V25" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P26">
         <v>26</v>
@@ -2765,45 +2543,36 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="V26" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P27">
         <v>27</v>
@@ -2812,45 +2581,36 @@
         <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="V27" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D28">
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -2859,45 +2619,36 @@
         <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V28" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D29">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P29">
         <v>28</v>
@@ -2906,45 +2657,36 @@
         <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V29" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30">
         <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N30">
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P30">
         <v>28</v>
@@ -2953,45 +2695,36 @@
         <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V30" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31">
         <v>10912</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P31">
         <v>29</v>
@@ -3000,45 +2733,36 @@
         <v>58</v>
       </c>
       <c r="R31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="V31" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32">
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N32">
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P32">
         <v>30</v>
@@ -3047,45 +2771,36 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V32" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D33">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N33">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P33">
         <v>30</v>
@@ -3094,45 +2809,36 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V33" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P34">
         <v>32</v>
@@ -3141,45 +2847,36 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="V34" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35">
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N35">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P35">
         <v>33</v>
@@ -3188,45 +2885,36 @@
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="V35" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N36">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P36">
         <v>34</v>
@@ -3235,45 +2923,36 @@
         <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S36" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V36" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N37">
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -3282,45 +2961,36 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V37" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38">
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P38">
         <v>35</v>
@@ -3329,45 +2999,36 @@
         <v>75</v>
       </c>
       <c r="R38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S38" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V38" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39">
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P39">
         <v>35</v>
@@ -3376,45 +3037,36 @@
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S39" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V39" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40">
         <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N40">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P40">
         <v>35</v>
@@ -3423,45 +3075,36 @@
         <v>75</v>
       </c>
       <c r="R40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S40" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V40" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D41">
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N41">
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P41">
         <v>35</v>
@@ -3470,45 +3113,36 @@
         <v>75</v>
       </c>
       <c r="R41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S41" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V41" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D42">
         <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P42">
         <v>35</v>
@@ -3517,45 +3151,36 @@
         <v>75</v>
       </c>
       <c r="R42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S42" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V42" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43">
         <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N43">
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P43">
         <v>35</v>
@@ -3564,45 +3189,36 @@
         <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S43" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V43" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P44">
         <v>36</v>
@@ -3611,45 +3227,36 @@
         <v>77</v>
       </c>
       <c r="R44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S44" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V44" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45">
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N45">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P45">
         <v>36</v>
@@ -3658,45 +3265,36 @@
         <v>77</v>
       </c>
       <c r="R45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S45" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V45" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N46">
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3705,45 +3303,36 @@
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S46" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="V46" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N47">
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P47">
         <v>38</v>
@@ -3752,45 +3341,36 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S47" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V47" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N48">
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P48">
         <v>38</v>
@@ -3799,45 +3379,36 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S48" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V48" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49">
         <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N49">
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -3846,45 +3417,36 @@
         <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S49" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V49" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N50">
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P50">
         <v>39</v>
@@ -3893,45 +3455,36 @@
         <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S50" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V50" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P51">
         <v>39</v>
@@ -3940,45 +3493,36 @@
         <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V51" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52">
         <v>436</v>
       </c>
       <c r="E52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N52">
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -3987,45 +3531,36 @@
         <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S52" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V52" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P53">
         <v>41</v>
@@ -4034,45 +3569,36 @@
         <v>83</v>
       </c>
       <c r="R53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S53" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="V53" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N54">
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P54">
         <v>42</v>
@@ -4081,45 +3607,36 @@
         <v>84</v>
       </c>
       <c r="R54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S54" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="V54" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N55">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P55">
         <v>46</v>
@@ -4128,45 +3645,42 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S55" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P56">
         <v>46</v>
@@ -4175,45 +3689,42 @@
         <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V56" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P57">
         <v>46</v>
@@ -4222,45 +3733,42 @@
         <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58">
         <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N58">
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P58">
         <v>46</v>
@@ -4269,45 +3777,36 @@
         <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S58" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V58" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59">
         <v>735</v>
       </c>
       <c r="E59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N59">
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P59">
         <v>46</v>
@@ -4316,45 +3815,42 @@
         <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S59" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N60">
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P60">
         <v>47</v>
@@ -4363,45 +3859,36 @@
         <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S60" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V60" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N61">
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P61">
         <v>47</v>
@@ -4410,45 +3897,36 @@
         <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V61" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N62">
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P62">
         <v>47</v>
@@ -4457,45 +3935,36 @@
         <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S62" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V62" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N63">
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P63">
         <v>47</v>
@@ -4504,45 +3973,36 @@
         <v>91</v>
       </c>
       <c r="R63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S63" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V63" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N64">
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P64">
         <v>47</v>
@@ -4551,45 +4011,36 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S64" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V64" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P65">
         <v>48</v>
@@ -4598,45 +4049,36 @@
         <v>92</v>
       </c>
       <c r="R65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S65" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="V65" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66">
         <v>66814</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -4645,45 +4087,36 @@
         <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S66" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="V66" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N67">
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P67">
         <v>54</v>
@@ -4692,45 +4125,36 @@
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S67" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="V67" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N68">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P68">
         <v>56</v>
@@ -4739,45 +4163,36 @@
         <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S68" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="V68" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N69">
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P69">
         <v>57</v>
@@ -4786,45 +4201,36 @@
         <v>102</v>
       </c>
       <c r="R69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S69" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V69" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N70">
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P70">
         <v>57</v>
@@ -4833,45 +4239,36 @@
         <v>102</v>
       </c>
       <c r="R70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S70" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V70" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D71">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P71">
         <v>59</v>
@@ -4880,45 +4277,36 @@
         <v>104</v>
       </c>
       <c r="R71" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S71" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="V71" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D72">
         <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N72">
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -4927,45 +4315,36 @@
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S72" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="V72" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N73">
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -4974,45 +4353,36 @@
         <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S73" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="V73" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N74">
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P74">
         <v>63</v>
@@ -5021,45 +4391,36 @@
         <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S74" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="V74" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N75">
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P75">
         <v>65</v>
@@ -5068,45 +4429,36 @@
         <v>113</v>
       </c>
       <c r="R75" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S75" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="V75" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D76">
         <v>1536</v>
       </c>
       <c r="E76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N76">
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P76">
         <v>67</v>
@@ -5115,45 +4467,36 @@
         <v>115</v>
       </c>
       <c r="R76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S76" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="V76" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77">
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N77">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P77">
         <v>68</v>
@@ -5162,45 +4505,36 @@
         <v>117</v>
       </c>
       <c r="R77" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="V77" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D78">
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N78">
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P78">
         <v>70</v>
@@ -5209,22 +4543,13 @@
         <v>119</v>
       </c>
       <c r="R78" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="V78" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y78">
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -2780,7 +2780,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -3235,8 +3235,14 @@
       <c r="V44" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="Y44">
+        <v>0.6</v>
+      </c>
+      <c r="Z44">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -3312,7 +3318,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -3350,7 +3356,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>70</v>
       </c>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="360">
   <si>
     <t>p24_1_nom</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>nota_iniciativa</t>
-  </si>
-  <si>
-    <t>p24_1</t>
   </si>
   <si>
     <t>Taller de innovación</t>
@@ -1528,13 +1525,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1610,31 +1607,28 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P2">
         <v>3</v>
@@ -1643,36 +1637,39 @@
         <v>7</v>
       </c>
       <c r="R2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="V2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P3">
         <v>7</v>
@@ -1681,36 +1678,39 @@
         <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="V3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N4">
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P4">
         <v>8</v>
@@ -1719,36 +1719,39 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="V4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P5">
         <v>9</v>
@@ -1757,36 +1760,39 @@
         <v>15</v>
       </c>
       <c r="R5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6">
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N6">
         <v>5</v>
       </c>
       <c r="O6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P6">
         <v>9</v>
@@ -1795,36 +1801,39 @@
         <v>15</v>
       </c>
       <c r="R6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S6" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="V6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7">
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P7">
         <v>11</v>
@@ -1833,36 +1842,39 @@
         <v>17</v>
       </c>
       <c r="R7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>1897</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N8">
         <v>7</v>
       </c>
       <c r="O8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P8">
         <v>11</v>
@@ -1871,36 +1883,39 @@
         <v>17</v>
       </c>
       <c r="R8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N9">
         <v>8</v>
       </c>
       <c r="O9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P9">
         <v>11</v>
@@ -1909,24 +1924,27 @@
         <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="V9" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="E10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N10">
         <v>9</v>
       </c>
       <c r="O10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P10">
         <v>12</v>
@@ -1935,36 +1953,39 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S10" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="V10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11">
         <v>384</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N11">
         <v>10</v>
       </c>
       <c r="O11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -1973,36 +1994,39 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S11" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="V11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>359</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12">
         <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N12">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P12">
         <v>16</v>
@@ -2011,36 +2035,39 @@
         <v>25</v>
       </c>
       <c r="R12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S12" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N13">
         <v>12</v>
       </c>
       <c r="O13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P13">
         <v>16</v>
@@ -2049,36 +2076,39 @@
         <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S13" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V13" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N14">
         <v>13</v>
       </c>
       <c r="O14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P14">
         <v>16</v>
@@ -2087,36 +2117,39 @@
         <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="S14" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="V14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P15">
         <v>17</v>
@@ -2125,36 +2158,39 @@
         <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S15" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N16">
         <v>15</v>
       </c>
       <c r="O16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P16">
         <v>17</v>
@@ -2163,36 +2199,39 @@
         <v>26</v>
       </c>
       <c r="R16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S16" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="V16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N17">
         <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P17">
         <v>22</v>
@@ -2201,36 +2240,39 @@
         <v>37</v>
       </c>
       <c r="R17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S17" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="V17" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N18">
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P18">
         <v>23</v>
@@ -2239,36 +2281,39 @@
         <v>38</v>
       </c>
       <c r="R18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S18" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N19">
         <v>18</v>
       </c>
       <c r="O19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P19">
         <v>23</v>
@@ -2277,36 +2322,39 @@
         <v>38</v>
       </c>
       <c r="R19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S19" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N20">
         <v>19</v>
       </c>
       <c r="O20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P20">
         <v>23</v>
@@ -2315,36 +2363,39 @@
         <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S20" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N21">
         <v>20</v>
       </c>
       <c r="O21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P21">
         <v>23</v>
@@ -2353,36 +2404,39 @@
         <v>38</v>
       </c>
       <c r="R21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S21" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N22">
         <v>21</v>
       </c>
       <c r="O22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -2391,36 +2445,39 @@
         <v>38</v>
       </c>
       <c r="R22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S22" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V22" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23">
         <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P23">
         <v>23</v>
@@ -2429,36 +2486,39 @@
         <v>38</v>
       </c>
       <c r="R23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S23" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="V23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D24">
         <v>111</v>
       </c>
       <c r="E24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N24">
         <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P24">
         <v>24</v>
@@ -2467,36 +2527,39 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>359</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25">
         <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N25">
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P25">
         <v>24</v>
@@ -2505,36 +2568,39 @@
         <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="V25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>359</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D26">
         <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N26">
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P26">
         <v>26</v>
@@ -2543,36 +2609,39 @@
         <v>55</v>
       </c>
       <c r="R26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S26" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="V26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27">
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N27">
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P27">
         <v>27</v>
@@ -2581,36 +2650,39 @@
         <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S27" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="V27" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D28">
         <v>160</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N28">
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P28">
         <v>28</v>
@@ -2619,36 +2691,39 @@
         <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S28" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D29">
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N29">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P29">
         <v>28</v>
@@ -2657,36 +2732,39 @@
         <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S29" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V29" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30">
         <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N30">
         <v>29</v>
       </c>
       <c r="O30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P30">
         <v>28</v>
@@ -2695,36 +2773,39 @@
         <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S30" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="V30" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31">
         <v>10912</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N31">
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P31">
         <v>29</v>
@@ -2733,36 +2814,39 @@
         <v>58</v>
       </c>
       <c r="R31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S31" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="V31" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32">
         <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N32">
         <v>31</v>
       </c>
       <c r="O32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P32">
         <v>30</v>
@@ -2771,36 +2855,39 @@
         <v>59</v>
       </c>
       <c r="R32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S32" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33">
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N33">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P33">
         <v>30</v>
@@ -2809,36 +2896,39 @@
         <v>59</v>
       </c>
       <c r="R33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S33" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="V33" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N34">
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P34">
         <v>32</v>
@@ -2847,36 +2937,39 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S34" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="V34" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35">
         <v>252</v>
       </c>
       <c r="E35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N35">
         <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P35">
         <v>33</v>
@@ -2885,36 +2978,39 @@
         <v>63</v>
       </c>
       <c r="R35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="S35" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="V35" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36">
         <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N36">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P36">
         <v>34</v>
@@ -2923,36 +3019,39 @@
         <v>64</v>
       </c>
       <c r="R36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S36" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V36" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N37">
         <v>36</v>
       </c>
       <c r="O37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P37">
         <v>34</v>
@@ -2961,36 +3060,39 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="S37" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="V37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38">
         <v>125</v>
       </c>
       <c r="E38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N38">
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P38">
         <v>35</v>
@@ -2999,36 +3101,39 @@
         <v>75</v>
       </c>
       <c r="R38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S38" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D39">
         <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N39">
         <v>38</v>
       </c>
       <c r="O39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P39">
         <v>35</v>
@@ -3037,36 +3142,39 @@
         <v>75</v>
       </c>
       <c r="R39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S39" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V39" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40">
         <v>700</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N40">
         <v>39</v>
       </c>
       <c r="O40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P40">
         <v>35</v>
@@ -3075,36 +3183,39 @@
         <v>75</v>
       </c>
       <c r="R40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S40" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V40" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41">
         <v>86</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N41">
         <v>40</v>
       </c>
       <c r="O41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P41">
         <v>35</v>
@@ -3113,36 +3224,39 @@
         <v>75</v>
       </c>
       <c r="R41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S41" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V41" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D42">
         <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N42">
         <v>41</v>
       </c>
       <c r="O42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P42">
         <v>35</v>
@@ -3151,36 +3265,39 @@
         <v>75</v>
       </c>
       <c r="R42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S42" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V42" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D43">
         <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N43">
         <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P43">
         <v>35</v>
@@ -3189,36 +3306,39 @@
         <v>75</v>
       </c>
       <c r="R43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S43" s="2">
         <v>45040.58966435185</v>
       </c>
       <c r="V43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
       <c r="E44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N44">
         <v>43</v>
       </c>
       <c r="O44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P44">
         <v>36</v>
@@ -3227,42 +3347,39 @@
         <v>77</v>
       </c>
       <c r="R44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S44" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V44" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y44">
-        <v>0.6</v>
-      </c>
-      <c r="Z44">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D45">
         <v>171</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N45">
         <v>44</v>
       </c>
       <c r="O45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P45">
         <v>36</v>
@@ -3271,36 +3388,39 @@
         <v>77</v>
       </c>
       <c r="R45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S45" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="V45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D46">
         <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N46">
         <v>45</v>
       </c>
       <c r="O46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P46">
         <v>37</v>
@@ -3309,36 +3429,39 @@
         <v>78</v>
       </c>
       <c r="R46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="S46" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="V46" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D47">
         <v>49</v>
       </c>
       <c r="E47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N47">
         <v>46</v>
       </c>
       <c r="O47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P47">
         <v>38</v>
@@ -3347,36 +3470,39 @@
         <v>80</v>
       </c>
       <c r="R47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S47" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48">
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N48">
         <v>47</v>
       </c>
       <c r="O48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P48">
         <v>38</v>
@@ -3385,36 +3511,39 @@
         <v>80</v>
       </c>
       <c r="R48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="S48" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="V48" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49">
         <v>582</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N49">
         <v>48</v>
       </c>
       <c r="O49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P49">
         <v>39</v>
@@ -3423,36 +3552,39 @@
         <v>81</v>
       </c>
       <c r="R49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S49" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V49" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D50">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N50">
         <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P50">
         <v>39</v>
@@ -3461,36 +3593,39 @@
         <v>81</v>
       </c>
       <c r="R50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S50" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51">
         <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N51">
         <v>50</v>
       </c>
       <c r="O51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P51">
         <v>39</v>
@@ -3499,36 +3634,39 @@
         <v>81</v>
       </c>
       <c r="R51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V51" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52">
         <v>436</v>
       </c>
       <c r="E52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N52">
         <v>51</v>
       </c>
       <c r="O52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P52">
         <v>39</v>
@@ -3537,36 +3675,39 @@
         <v>81</v>
       </c>
       <c r="R52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S52" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="V52" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53">
         <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N53">
         <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P53">
         <v>41</v>
@@ -3575,36 +3716,39 @@
         <v>83</v>
       </c>
       <c r="R53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S53" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="V53" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D54">
         <v>150</v>
       </c>
       <c r="E54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N54">
         <v>53</v>
       </c>
       <c r="O54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P54">
         <v>42</v>
@@ -3613,36 +3757,39 @@
         <v>84</v>
       </c>
       <c r="R54" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="S54" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="V54" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D55">
         <v>220</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N55">
         <v>54</v>
       </c>
       <c r="O55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P55">
         <v>46</v>
@@ -3651,42 +3798,39 @@
         <v>90</v>
       </c>
       <c r="R55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S55" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y55">
-        <v>1.6</v>
-      </c>
-      <c r="Z55">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56">
         <v>80</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N56">
         <v>55</v>
       </c>
       <c r="O56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P56">
         <v>46</v>
@@ -3695,42 +3839,39 @@
         <v>90</v>
       </c>
       <c r="R56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y56">
-        <v>1.6</v>
-      </c>
-      <c r="Z56">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D57">
         <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N57">
         <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P57">
         <v>46</v>
@@ -3739,42 +3880,39 @@
         <v>90</v>
       </c>
       <c r="R57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y57">
-        <v>1.6</v>
-      </c>
-      <c r="Z57">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58">
         <v>351</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N58">
         <v>57</v>
       </c>
       <c r="O58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P58">
         <v>46</v>
@@ -3783,36 +3921,39 @@
         <v>90</v>
       </c>
       <c r="R58" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S58" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V58" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D59">
         <v>735</v>
       </c>
       <c r="E59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N59">
         <v>58</v>
       </c>
       <c r="O59" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P59">
         <v>46</v>
@@ -3821,42 +3962,39 @@
         <v>90</v>
       </c>
       <c r="R59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="S59" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="V59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Y59">
-        <v>1.6</v>
-      </c>
-      <c r="Z59">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D60">
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N60">
         <v>59</v>
       </c>
       <c r="O60" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P60">
         <v>47</v>
@@ -3865,36 +4003,39 @@
         <v>91</v>
       </c>
       <c r="R60" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S60" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D61">
         <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N61">
         <v>60</v>
       </c>
       <c r="O61" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P61">
         <v>47</v>
@@ -3903,36 +4044,39 @@
         <v>91</v>
       </c>
       <c r="R61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V61" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N62">
         <v>61</v>
       </c>
       <c r="O62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P62">
         <v>47</v>
@@ -3941,36 +4085,39 @@
         <v>91</v>
       </c>
       <c r="R62" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S62" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V62" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N63">
         <v>62</v>
       </c>
       <c r="O63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P63">
         <v>47</v>
@@ -3979,36 +4126,39 @@
         <v>91</v>
       </c>
       <c r="R63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S63" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V63" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>358</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D64">
         <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N64">
         <v>63</v>
       </c>
       <c r="O64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P64">
         <v>47</v>
@@ -4017,36 +4167,39 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="S64" s="2">
         <v>45043.91625</v>
       </c>
       <c r="V64" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D65">
         <v>28</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N65">
         <v>64</v>
       </c>
       <c r="O65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P65">
         <v>48</v>
@@ -4055,36 +4208,39 @@
         <v>92</v>
       </c>
       <c r="R65" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S65" s="2">
         <v>45044.00171296296</v>
       </c>
       <c r="V65" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D66">
         <v>66814</v>
       </c>
       <c r="E66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N66">
         <v>65</v>
       </c>
       <c r="O66" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P66">
         <v>50</v>
@@ -4093,36 +4249,39 @@
         <v>94</v>
       </c>
       <c r="R66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="S66" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="V66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67">
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N67">
         <v>66</v>
       </c>
       <c r="O67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P67">
         <v>54</v>
@@ -4131,36 +4290,39 @@
         <v>99</v>
       </c>
       <c r="R67" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="S67" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="V67" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N68">
         <v>67</v>
       </c>
       <c r="O68" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P68">
         <v>56</v>
@@ -4169,36 +4331,39 @@
         <v>101</v>
       </c>
       <c r="R68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="S68" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="V68" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69">
         <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N69">
         <v>68</v>
       </c>
       <c r="O69" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P69">
         <v>57</v>
@@ -4207,36 +4372,39 @@
         <v>102</v>
       </c>
       <c r="R69" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S69" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V69" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N70">
         <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P70">
         <v>57</v>
@@ -4245,36 +4413,39 @@
         <v>102</v>
       </c>
       <c r="R70" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S70" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="V70" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N71">
         <v>70</v>
       </c>
       <c r="O71" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P71">
         <v>59</v>
@@ -4283,36 +4454,39 @@
         <v>104</v>
       </c>
       <c r="R71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S71" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="V71" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D72">
         <v>300</v>
       </c>
       <c r="E72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N72">
         <v>71</v>
       </c>
       <c r="O72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P72">
         <v>60</v>
@@ -4321,36 +4495,39 @@
         <v>105</v>
       </c>
       <c r="R72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S72" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="V72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D73">
         <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N73">
         <v>72</v>
       </c>
       <c r="O73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P73">
         <v>61</v>
@@ -4359,36 +4536,39 @@
         <v>106</v>
       </c>
       <c r="R73" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="S73" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="V73" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D74">
         <v>27</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N74">
         <v>73</v>
       </c>
       <c r="O74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P74">
         <v>63</v>
@@ -4397,36 +4577,39 @@
         <v>110</v>
       </c>
       <c r="R74" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="S74" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="V74" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D75">
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N75">
         <v>74</v>
       </c>
       <c r="O75" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P75">
         <v>65</v>
@@ -4435,36 +4618,39 @@
         <v>113</v>
       </c>
       <c r="R75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S75" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="V75" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D76">
         <v>1536</v>
       </c>
       <c r="E76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N76">
         <v>75</v>
       </c>
       <c r="O76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P76">
         <v>67</v>
@@ -4473,36 +4659,39 @@
         <v>115</v>
       </c>
       <c r="R76" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S76" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="V76" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
+        <v>359</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77">
         <v>300</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N77">
         <v>76</v>
       </c>
       <c r="O77" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P77">
         <v>68</v>
@@ -4511,36 +4700,39 @@
         <v>117</v>
       </c>
       <c r="R77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="V77" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
+        <v>358</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78">
         <v>38</v>
       </c>
       <c r="E78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N78">
         <v>77</v>
       </c>
       <c r="O78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P78">
         <v>70</v>
@@ -4549,13 +4741,16 @@
         <v>119</v>
       </c>
       <c r="R78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S78" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="V78" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_1.xlsx
+++ b/files/separadas/repeat_p24_1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9ED7F6-3A5A-42AD-A80A-659E5279389F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1169,11 +1175,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1237,13 +1243,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1281,7 +1295,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1315,6 +1329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1349,9 +1364,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1524,14 +1540,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>316</v>
       </c>
       <c r="S2" s="2">
-        <v>45013.73163194444</v>
+        <v>45013.731631944444</v>
       </c>
       <c r="V2" t="s">
         <v>358</v>
@@ -1649,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1681,7 +1699,7 @@
         <v>317</v>
       </c>
       <c r="S3" s="2">
-        <v>45027.65930555556</v>
+        <v>45027.659305555557</v>
       </c>
       <c r="V3" t="s">
         <v>358</v>
@@ -1690,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>318</v>
       </c>
       <c r="S4" s="2">
-        <v>45028.7987037037</v>
+        <v>45028.798703703702</v>
       </c>
       <c r="V4" t="s">
         <v>358</v>
@@ -1731,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1763,7 +1781,7 @@
         <v>319</v>
       </c>
       <c r="S5" s="2">
-        <v>45028.82005787037</v>
+        <v>45028.820057870369</v>
       </c>
       <c r="V5" t="s">
         <v>358</v>
@@ -1772,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>319</v>
       </c>
       <c r="S6" s="2">
-        <v>45028.82005787037</v>
+        <v>45028.820057870369</v>
       </c>
       <c r="V6" t="s">
         <v>358</v>
@@ -1813,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>320</v>
       </c>
       <c r="S7" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="V7" t="s">
         <v>358</v>
@@ -1854,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1886,7 +1904,7 @@
         <v>320</v>
       </c>
       <c r="S8" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="V8" t="s">
         <v>358</v>
@@ -1895,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>320</v>
       </c>
       <c r="S9" s="2">
-        <v>45028.9031712963</v>
+        <v>45028.903171296297</v>
       </c>
       <c r="V9" t="s">
         <v>358</v>
@@ -1936,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>246</v>
       </c>
@@ -1956,7 +1974,7 @@
         <v>321</v>
       </c>
       <c r="S10" s="2">
-        <v>45029.81189814815</v>
+        <v>45029.811898148153</v>
       </c>
       <c r="V10" t="s">
         <v>358</v>
@@ -1965,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1997,7 +2015,7 @@
         <v>322</v>
       </c>
       <c r="S11" s="2">
-        <v>45029.85457175926</v>
+        <v>45029.854571759257</v>
       </c>
       <c r="V11" t="s">
         <v>359</v>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>323</v>
       </c>
       <c r="S12" s="2">
-        <v>45030.71190972222</v>
+        <v>45030.711909722217</v>
       </c>
       <c r="V12" t="s">
         <v>358</v>
@@ -2047,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>323</v>
       </c>
       <c r="S13" s="2">
-        <v>45030.71190972222</v>
+        <v>45030.711909722217</v>
       </c>
       <c r="V13" t="s">
         <v>358</v>
@@ -2088,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2120,7 +2138,7 @@
         <v>323</v>
       </c>
       <c r="S14" s="2">
-        <v>45030.71190972222</v>
+        <v>45030.711909722217</v>
       </c>
       <c r="V14" t="s">
         <v>358</v>
@@ -2129,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>324</v>
       </c>
       <c r="S15" s="2">
-        <v>45030.72005787037</v>
+        <v>45030.720057870371</v>
       </c>
       <c r="V15" t="s">
         <v>358</v>
@@ -2170,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>324</v>
       </c>
       <c r="S16" s="2">
-        <v>45030.72005787037</v>
+        <v>45030.720057870371</v>
       </c>
       <c r="V16" t="s">
         <v>358</v>
@@ -2211,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>325</v>
       </c>
       <c r="S17" s="2">
-        <v>45031.15133101852</v>
+        <v>45031.151331018518</v>
       </c>
       <c r="V17" t="s">
         <v>358</v>
@@ -2252,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2284,7 +2302,7 @@
         <v>326</v>
       </c>
       <c r="S18" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="V18" t="s">
         <v>358</v>
@@ -2293,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>326</v>
       </c>
       <c r="S19" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="V19" t="s">
         <v>358</v>
@@ -2334,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2384,7 @@
         <v>326</v>
       </c>
       <c r="S20" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="V20" t="s">
         <v>358</v>
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2407,7 +2425,7 @@
         <v>326</v>
       </c>
       <c r="S21" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="V21" t="s">
         <v>358</v>
@@ -2416,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>326</v>
       </c>
       <c r="S22" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="V22" t="s">
         <v>358</v>
@@ -2457,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>326</v>
       </c>
       <c r="S23" s="2">
-        <v>45031.19106481481</v>
+        <v>45031.191064814811</v>
       </c>
       <c r="V23" t="s">
         <v>358</v>
@@ -2498,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2530,7 +2548,7 @@
         <v>327</v>
       </c>
       <c r="S24" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="V24" t="s">
         <v>359</v>
@@ -2539,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2571,7 +2589,7 @@
         <v>327</v>
       </c>
       <c r="S25" s="2">
-        <v>45033.69763888889</v>
+        <v>45033.697638888887</v>
       </c>
       <c r="V25" t="s">
         <v>359</v>
@@ -2580,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>328</v>
       </c>
       <c r="S26" s="2">
-        <v>45033.88635416667</v>
+        <v>45033.886354166672</v>
       </c>
       <c r="V26" t="s">
         <v>358</v>
@@ -2621,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>329</v>
       </c>
       <c r="S27" s="2">
-        <v>45034.64582175926</v>
+        <v>45034.645821759259</v>
       </c>
       <c r="V27" t="s">
         <v>358</v>
@@ -2662,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2703,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2744,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2817,7 +2835,7 @@
         <v>331</v>
       </c>
       <c r="S31" s="2">
-        <v>45034.89546296297</v>
+        <v>45034.895462962973</v>
       </c>
       <c r="V31" t="s">
         <v>358</v>
@@ -2826,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -2858,7 +2876,7 @@
         <v>332</v>
       </c>
       <c r="S32" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="V32" t="s">
         <v>358</v>
@@ -2867,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -2899,7 +2917,7 @@
         <v>332</v>
       </c>
       <c r="S33" s="2">
-        <v>45034.90506944444</v>
+        <v>45034.905069444438</v>
       </c>
       <c r="V33" t="s">
         <v>358</v>
@@ -2908,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -2940,7 +2958,7 @@
         <v>333</v>
       </c>
       <c r="S34" s="2">
-        <v>45034.94509259259</v>
+        <v>45034.945092592592</v>
       </c>
       <c r="V34" t="s">
         <v>358</v>
@@ -2949,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>334</v>
       </c>
       <c r="S35" s="2">
-        <v>45035.70458333333</v>
+        <v>45035.704583333332</v>
       </c>
       <c r="V35" t="s">
         <v>358</v>
@@ -2990,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -3022,7 +3040,7 @@
         <v>335</v>
       </c>
       <c r="S36" s="2">
-        <v>45035.83660879629</v>
+        <v>45035.836608796293</v>
       </c>
       <c r="V36" t="s">
         <v>358</v>
@@ -3031,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3063,7 +3081,7 @@
         <v>335</v>
       </c>
       <c r="S37" s="2">
-        <v>45035.83660879629</v>
+        <v>45035.836608796293</v>
       </c>
       <c r="V37" t="s">
         <v>358</v>
@@ -3072,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -3113,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -3154,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3236,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3277,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3318,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3350,7 +3368,7 @@
         <v>337</v>
       </c>
       <c r="S44" s="2">
-        <v>45040.91716435185</v>
+        <v>45040.917164351849</v>
       </c>
       <c r="V44" t="s">
         <v>358</v>
@@ -3359,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3391,7 +3409,7 @@
         <v>337</v>
       </c>
       <c r="S45" s="2">
-        <v>45040.91716435185</v>
+        <v>45040.917164351849</v>
       </c>
       <c r="V45" t="s">
         <v>358</v>
@@ -3400,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>338</v>
       </c>
       <c r="S46" s="2">
-        <v>45041.15349537037</v>
+        <v>45041.153495370367</v>
       </c>
       <c r="V46" t="s">
         <v>358</v>
@@ -3441,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -3473,7 +3491,7 @@
         <v>339</v>
       </c>
       <c r="S47" s="2">
-        <v>45041.88762731481</v>
+        <v>45041.887627314813</v>
       </c>
       <c r="V47" t="s">
         <v>358</v>
@@ -3482,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3514,7 +3532,7 @@
         <v>339</v>
       </c>
       <c r="S48" s="2">
-        <v>45041.88762731481</v>
+        <v>45041.887627314813</v>
       </c>
       <c r="V48" t="s">
         <v>358</v>
@@ -3523,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>340</v>
       </c>
       <c r="S49" s="2">
-        <v>45041.98872685185</v>
+        <v>45041.988726851851</v>
       </c>
       <c r="V49" t="s">
         <v>358</v>
@@ -3564,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -3596,7 +3614,7 @@
         <v>340</v>
       </c>
       <c r="S50" s="2">
-        <v>45041.98872685185</v>
+        <v>45041.988726851851</v>
       </c>
       <c r="V50" t="s">
         <v>358</v>
@@ -3605,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -3637,7 +3655,7 @@
         <v>340</v>
       </c>
       <c r="S51" s="2">
-        <v>45041.98872685185</v>
+        <v>45041.988726851851</v>
       </c>
       <c r="V51" t="s">
         <v>358</v>
@@ -3646,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
@@ -3678,7 +3696,7 @@
         <v>340</v>
       </c>
       <c r="S52" s="2">
-        <v>45041.98872685185</v>
+        <v>45041.988726851851</v>
       </c>
       <c r="V52" t="s">
         <v>358</v>
@@ -3687,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>341</v>
       </c>
       <c r="S53" s="2">
-        <v>45042.86403935185</v>
+        <v>45042.864039351851</v>
       </c>
       <c r="V53" t="s">
         <v>358</v>
@@ -3728,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -3760,7 +3778,7 @@
         <v>342</v>
       </c>
       <c r="S54" s="2">
-        <v>45042.98253472222</v>
+        <v>45042.982534722221</v>
       </c>
       <c r="V54" t="s">
         <v>358</v>
@@ -3769,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>76</v>
       </c>
@@ -3810,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -3933,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -3974,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -4006,7 +4024,7 @@
         <v>344</v>
       </c>
       <c r="S60" s="2">
-        <v>45043.91625</v>
+        <v>45043.916250000002</v>
       </c>
       <c r="V60" t="s">
         <v>358</v>
@@ -4015,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>82</v>
       </c>
@@ -4047,7 +4065,7 @@
         <v>344</v>
       </c>
       <c r="S61" s="2">
-        <v>45043.91625</v>
+        <v>45043.916250000002</v>
       </c>
       <c r="V61" t="s">
         <v>358</v>
@@ -4056,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -4088,7 +4106,7 @@
         <v>344</v>
       </c>
       <c r="S62" s="2">
-        <v>45043.91625</v>
+        <v>45043.916250000002</v>
       </c>
       <c r="V62" t="s">
         <v>358</v>
@@ -4097,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -4129,7 +4147,7 @@
         <v>344</v>
       </c>
       <c r="S63" s="2">
-        <v>45043.91625</v>
+        <v>45043.916250000002</v>
       </c>
       <c r="V63" t="s">
         <v>358</v>
@@ -4138,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>85</v>
       </c>
@@ -4170,7 +4188,7 @@
         <v>344</v>
       </c>
       <c r="S64" s="2">
-        <v>45043.91625</v>
+        <v>45043.916250000002</v>
       </c>
       <c r="V64" t="s">
         <v>358</v>
@@ -4179,7 +4197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>86</v>
       </c>
@@ -4211,7 +4229,7 @@
         <v>345</v>
       </c>
       <c r="S65" s="2">
-        <v>45044.00171296296</v>
+        <v>45044.001712962963</v>
       </c>
       <c r="V65" t="s">
         <v>358</v>
@@ -4220,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -4252,7 +4270,7 @@
         <v>346</v>
       </c>
       <c r="S66" s="2">
-        <v>45044.87012731482</v>
+        <v>45044.870127314818</v>
       </c>
       <c r="V66" t="s">
         <v>358</v>
@@ -4261,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4293,7 +4311,7 @@
         <v>347</v>
       </c>
       <c r="S67" s="2">
-        <v>45044.95618055556</v>
+        <v>45044.956180555557</v>
       </c>
       <c r="V67" t="s">
         <v>358</v>
@@ -4302,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -4343,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>349</v>
       </c>
       <c r="S69" s="2">
-        <v>45045.00479166667</v>
+        <v>45045.004791666674</v>
       </c>
       <c r="V69" t="s">
         <v>358</v>
@@ -4384,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -4416,7 +4434,7 @@
         <v>349</v>
       </c>
       <c r="S70" s="2">
-        <v>45045.00479166667</v>
+        <v>45045.004791666674</v>
       </c>
       <c r="V70" t="s">
         <v>358</v>
@@ -4425,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>350</v>
       </c>
       <c r="S71" s="2">
-        <v>45045.12083333333</v>
+        <v>45045.120833333327</v>
       </c>
       <c r="V71" t="s">
         <v>358</v>
@@ -4466,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>93</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>351</v>
       </c>
       <c r="S72" s="2">
-        <v>45045.13675925926</v>
+        <v>45045.136759259258</v>
       </c>
       <c r="V72" t="s">
         <v>358</v>
@@ -4507,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -4539,7 +4557,7 @@
         <v>352</v>
       </c>
       <c r="S73" s="2">
-        <v>45045.14796296296</v>
+        <v>45045.147962962961</v>
       </c>
       <c r="V73" t="s">
         <v>358</v>
@@ -4548,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>95</v>
       </c>
@@ -4580,7 +4598,7 @@
         <v>353</v>
       </c>
       <c r="S74" s="2">
-        <v>45045.20893518518</v>
+        <v>45045.208935185183</v>
       </c>
       <c r="V74" t="s">
         <v>358</v>
@@ -4589,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -4621,7 +4639,7 @@
         <v>354</v>
       </c>
       <c r="S75" s="2">
-        <v>45046.88504629629</v>
+        <v>45046.885046296287</v>
       </c>
       <c r="V75" t="s">
         <v>358</v>
@@ -4630,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -4662,7 +4680,7 @@
         <v>355</v>
       </c>
       <c r="S76" s="2">
-        <v>45048.69172453704</v>
+        <v>45048.691724537042</v>
       </c>
       <c r="V76" t="s">
         <v>359</v>
@@ -4671,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -4703,7 +4721,7 @@
         <v>356</v>
       </c>
       <c r="S77" s="2">
-        <v>45048.78865740741</v>
+        <v>45048.788657407407</v>
       </c>
       <c r="V77" t="s">
         <v>358</v>
@@ -4712,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -4744,7 +4762,7 @@
         <v>357</v>
       </c>
       <c r="S78" s="2">
-        <v>45059.22766203704</v>
+        <v>45059.227662037039</v>
       </c>
       <c r="V78" t="s">
         <v>358</v>
